--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.12116772042443</v>
+        <v>2.158107333333333</v>
       </c>
       <c r="H2">
-        <v>1.12116772042443</v>
+        <v>6.474322</v>
       </c>
       <c r="I2">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021155</v>
       </c>
       <c r="J2">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N2">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q2">
-        <v>8.276786796436248</v>
+        <v>19.00623691267155</v>
       </c>
       <c r="R2">
-        <v>8.276786796436248</v>
+        <v>171.056132214044</v>
       </c>
       <c r="S2">
-        <v>0.003958495218435561</v>
+        <v>0.008303304364756056</v>
       </c>
       <c r="T2">
-        <v>0.003958495218435561</v>
+        <v>0.00830330436475606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.12116772042443</v>
+        <v>2.158107333333333</v>
       </c>
       <c r="H3">
-        <v>1.12116772042443</v>
+        <v>6.474322</v>
       </c>
       <c r="I3">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021155</v>
       </c>
       <c r="J3">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N3">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q3">
-        <v>20.94341135902508</v>
+        <v>40.50096437159822</v>
       </c>
       <c r="R3">
-        <v>20.94341135902508</v>
+        <v>364.508679344384</v>
       </c>
       <c r="S3">
-        <v>0.01001649501931427</v>
+        <v>0.01769376209444773</v>
       </c>
       <c r="T3">
-        <v>0.01001649501931427</v>
+        <v>0.01769376209444773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.12116772042443</v>
+        <v>2.158107333333333</v>
       </c>
       <c r="H4">
-        <v>1.12116772042443</v>
+        <v>6.474322</v>
       </c>
       <c r="I4">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021155</v>
       </c>
       <c r="J4">
-        <v>0.02621214283882727</v>
+        <v>0.04789414999021156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N4">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q4">
-        <v>25.58656698708906</v>
+        <v>50.12235358412266</v>
       </c>
       <c r="R4">
-        <v>25.58656698708906</v>
+        <v>451.101182257104</v>
       </c>
       <c r="S4">
-        <v>0.01223715260107744</v>
+        <v>0.02189708353100777</v>
       </c>
       <c r="T4">
-        <v>0.01223715260107744</v>
+        <v>0.02189708353100777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.2606033043715</v>
+        <v>41.35786966666667</v>
       </c>
       <c r="H5">
-        <v>40.2606033043715</v>
+        <v>124.073609</v>
       </c>
       <c r="I5">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="J5">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N5">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q5">
-        <v>297.2155046704631</v>
+        <v>364.2346499392797</v>
       </c>
       <c r="R5">
-        <v>297.2155046704631</v>
+        <v>3278.111849453518</v>
       </c>
       <c r="S5">
-        <v>0.1421476936665228</v>
+        <v>0.1591241429080507</v>
       </c>
       <c r="T5">
-        <v>0.1421476936665228</v>
+        <v>0.1591241429080507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.2606033043715</v>
+        <v>41.35786966666667</v>
       </c>
       <c r="H6">
-        <v>40.2606033043715</v>
+        <v>124.073609</v>
       </c>
       <c r="I6">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="J6">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N6">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q6">
-        <v>752.0680101695905</v>
+        <v>776.1586182405832</v>
       </c>
       <c r="R6">
-        <v>752.0680101695905</v>
+        <v>6985.427564165249</v>
       </c>
       <c r="S6">
-        <v>0.3596876052765438</v>
+        <v>0.3390824428944882</v>
       </c>
       <c r="T6">
-        <v>0.3596876052765438</v>
+        <v>0.3390824428944882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.2606033043715</v>
+        <v>41.35786966666667</v>
       </c>
       <c r="H7">
-        <v>40.2606033043715</v>
+        <v>124.073609</v>
       </c>
       <c r="I7">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="J7">
-        <v>0.9412656691472043</v>
+        <v>0.9178412873614971</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N7">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q7">
-        <v>918.8015357755338</v>
+        <v>960.5424785415653</v>
       </c>
       <c r="R7">
-        <v>918.8015357755338</v>
+        <v>8644.882306874088</v>
       </c>
       <c r="S7">
-        <v>0.4394303702041378</v>
+        <v>0.4196347015589582</v>
       </c>
       <c r="T7">
-        <v>0.4394303702041378</v>
+        <v>0.4196347015589582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3910662559348</v>
+        <v>1.543959</v>
       </c>
       <c r="H8">
-        <v>1.3910662559348</v>
+        <v>4.631876999999999</v>
       </c>
       <c r="I8">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829138</v>
       </c>
       <c r="J8">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N8">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q8">
-        <v>10.26925642822697</v>
+        <v>13.597493546406</v>
       </c>
       <c r="R8">
-        <v>10.26925642822697</v>
+        <v>122.377441917654</v>
       </c>
       <c r="S8">
-        <v>0.004911423172761706</v>
+        <v>0.005940372522576603</v>
       </c>
       <c r="T8">
-        <v>0.004911423172761706</v>
+        <v>0.005940372522576603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3910662559348</v>
+        <v>1.543959</v>
       </c>
       <c r="H9">
-        <v>1.3910662559348</v>
+        <v>4.631876999999999</v>
       </c>
       <c r="I9">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829138</v>
       </c>
       <c r="J9">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N9">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q9">
-        <v>25.98511560310755</v>
+        <v>28.975309746816</v>
       </c>
       <c r="R9">
-        <v>25.98511560310755</v>
+        <v>260.777787721344</v>
       </c>
       <c r="S9">
-        <v>0.01242776434807841</v>
+        <v>0.01265851925325065</v>
       </c>
       <c r="T9">
-        <v>0.01242776434807841</v>
+        <v>0.01265851925325065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3910662559348</v>
+        <v>1.543959</v>
       </c>
       <c r="H10">
-        <v>1.3910662559348</v>
+        <v>4.631876999999999</v>
       </c>
       <c r="I10">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829138</v>
       </c>
       <c r="J10">
-        <v>0.03252218801396835</v>
+        <v>0.03426456264829137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N10">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q10">
-        <v>31.74601738219949</v>
+        <v>35.858670105096</v>
       </c>
       <c r="R10">
-        <v>31.74601738219949</v>
+        <v>322.728030945864</v>
       </c>
       <c r="S10">
-        <v>0.01518300049312824</v>
+        <v>0.01566567087246412</v>
       </c>
       <c r="T10">
-        <v>0.01518300049312824</v>
+        <v>0.01566567087246412</v>
       </c>
     </row>
   </sheetData>
